--- a/TSS_boardgame.xlsx
+++ b/TSS_boardgame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EAD88B-4BEB-4504-8375-DD5FA1F15DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A3AF3-3195-4CE9-BF95-54DBD270379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -10887,8 +10887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F62D196-CE0D-4FC4-B594-4D58D173DB05}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18499,8 +18499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96B8AE4-0FD4-4126-AACD-9736F4C81F06}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18624,7 +18624,7 @@
         <v>250</v>
       </c>
       <c r="G5" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H5" s="1">
         <v>150</v>
@@ -18653,7 +18653,7 @@
         <v>350</v>
       </c>
       <c r="G6" s="1">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H6" s="1">
         <v>250</v>
@@ -19169,7 +19169,7 @@
       </c>
       <c r="G36" s="1">
         <f>(G5+G6)/2</f>
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="H36" s="1">
         <f>(H5+H6)/2</f>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="G39" s="1">
         <f t="shared" si="2"/>
-        <v>418.5</v>
+        <v>325.5</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
@@ -19280,7 +19280,7 @@
       </c>
       <c r="G40" s="1">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
@@ -19354,7 +19354,7 @@
       </c>
       <c r="G42" s="1">
         <f t="shared" si="2"/>
-        <v>0.45</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="G43" s="1">
         <f t="shared" si="2"/>
-        <v>3.6</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
@@ -19428,7 +19428,7 @@
       </c>
       <c r="G44" s="1">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
@@ -19465,7 +19465,7 @@
       </c>
       <c r="G45" s="1">
         <f t="shared" si="2"/>
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
@@ -19539,7 +19539,7 @@
       </c>
       <c r="G47" s="1">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
@@ -19576,7 +19576,7 @@
       </c>
       <c r="G48" s="1">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="G49" s="1">
         <f t="shared" si="2"/>
-        <v>0.9</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>

--- a/TSS_boardgame.xlsx
+++ b/TSS_boardgame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474A3AF3-3195-4CE9-BF95-54DBD270379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB9C8F8-8524-4D5A-8798-538836C6ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -4706,9 +4706,6 @@
     <t>images/colony/building/placeholder_building_1.png</t>
   </si>
   <si>
-    <t>images/colony/building/placeholder_building_2,png</t>
-  </si>
-  <si>
     <t>images/colony/building/placeholder_building_3.png</t>
   </si>
   <si>
@@ -4781,40 +4778,43 @@
     <t>{'construction_materials':10}</t>
   </si>
   <si>
+    <t>images/colony/district/robotic.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/space.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/military.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/singularist.png</t>
+  </si>
+  <si>
+    <t>images/colony/district/energy.png</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>images/colony/building/placeholder_building_2.png</t>
+  </si>
+  <si>
+    <t>{'construction_materials':100, 'transport_spaceshuttle': 5}</t>
+  </si>
+  <si>
     <t>{'construction_materials':10, 'transport_spaceshuttle': 1}</t>
   </si>
   <si>
-    <t>{'construction_materials':100, 'transport_spaceshuttle': 5}</t>
+    <t>{'construction_materials':100, 'transport_spaceshuttle': 5, 'tools_industrial_robot':50}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':10, 'tools_industrial_robot': 1}</t>
+  </si>
+  <si>
+    <t>{'construction_materials':100, 'computer_high_tech': 40}</t>
   </si>
   <si>
     <t>{'construction_materials':10, 'computer_high_tech': 5}</t>
-  </si>
-  <si>
-    <t>{'construction_materials':100, 'computer_high_tech': 40}</t>
-  </si>
-  <si>
-    <t>images/colony/district/robotic.png</t>
-  </si>
-  <si>
-    <t>{'construction_materials':100, 'transport_spaceshuttle': 5, 'tools_industrial_robot':50}</t>
-  </si>
-  <si>
-    <t>{'construction_materials':10, 'tools_industrial_robot': 1}</t>
-  </si>
-  <si>
-    <t>images/colony/district/space.png</t>
-  </si>
-  <si>
-    <t>images/colony/district/military.png</t>
-  </si>
-  <si>
-    <t>images/colony/district/singularist.png</t>
-  </si>
-  <si>
-    <t>images/colony/district/energy.png</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
 </sst>
 </file>
@@ -10887,8 +10887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F62D196-CE0D-4FC4-B594-4D58D173DB05}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10953,7 +10953,7 @@
         <v>623</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10961,7 +10961,7 @@
         <v>624</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10969,7 +10969,7 @@
         <v>625</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10977,7 +10977,7 @@
         <v>614</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>626</v>
@@ -31437,9 +31437,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31505,16 +31505,16 @@
         <v>1390</v>
       </c>
       <c r="L2" s="130" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="M2" s="130" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N2" s="130" t="s">
         <v>1561</v>
       </c>
-      <c r="N2" s="130" t="s">
+      <c r="O2" s="130" t="s">
         <v>1562</v>
-      </c>
-      <c r="O2" s="130" t="s">
-        <v>1563</v>
       </c>
       <c r="P2" s="130"/>
       <c r="Q2" s="131" t="s">
@@ -31534,7 +31534,7 @@
       <c r="AA2" s="140"/>
       <c r="AB2" s="141"/>
       <c r="AC2" s="130" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="AD2" s="130" t="s">
         <v>1392</v>
@@ -31590,7 +31590,7 @@
         <v>1409</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -31631,7 +31631,7 @@
         <v>1409</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -32217,10 +32217,10 @@
         <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q25" s="125" t="s">
         <v>615</v>
@@ -32233,7 +32233,7 @@
         <v>1410</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -32265,10 +32265,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q26" s="125" t="s">
         <v>615</v>
@@ -32316,10 +32316,10 @@
         <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q27" s="125" t="s">
         <v>615</v>
@@ -32335,7 +32335,7 @@
         <v>1412</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -32367,10 +32367,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q28" s="125" t="s">
         <v>615</v>
@@ -32382,10 +32382,10 @@
         <v>1000</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -32417,10 +32417,10 @@
         <v>1</v>
       </c>
       <c r="N29" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="Q29" s="125" t="s">
         <v>615</v>
@@ -32435,7 +32435,7 @@
         <v>1413</v>
       </c>
       <c r="AE29" s="18" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -32468,10 +32468,10 @@
         <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>1573</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>1574</v>
       </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="125" t="s">
@@ -32484,10 +32484,10 @@
         <v>1000</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -32519,10 +32519,10 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
       <c r="Q31" s="125" t="s">
         <v>615</v>
@@ -32534,10 +32534,10 @@
         <v>1000</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="AE31" s="18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
@@ -32569,10 +32569,10 @@
         <v>2</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="Q32" s="125" t="s">
         <v>615</v>
@@ -32585,10 +32585,10 @@
         <v>1000</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="AE32" s="60" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
@@ -32621,10 +32621,10 @@
         <v>3</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>1578</v>
+        <v>1585</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1577</v>
+        <v>1586</v>
       </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="125" t="s">
@@ -32638,10 +32638,10 @@
         <v>1000</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="AE33" s="60" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
@@ -32674,7 +32674,7 @@
     </row>
     <row r="38" spans="1:31" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A38" s="55" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="201" x14ac:dyDescent="0.45">
@@ -32703,10 +32703,10 @@
         <v>1342</v>
       </c>
       <c r="I39" s="130" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J39" s="130" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="K39" s="130" t="s">
         <v>1348</v>
@@ -32715,13 +32715,13 @@
         <v>1349</v>
       </c>
       <c r="M39" s="130" t="s">
+        <v>1560</v>
+      </c>
+      <c r="N39" s="130" t="s">
         <v>1561</v>
       </c>
-      <c r="N39" s="130" t="s">
+      <c r="O39" s="130" t="s">
         <v>1562</v>
-      </c>
-      <c r="O39" s="130" t="s">
-        <v>1563</v>
       </c>
       <c r="P39" s="130"/>
       <c r="Q39" s="131" t="s">
@@ -32759,7 +32759,7 @@
         <v>1339</v>
       </c>
       <c r="AC39" s="130" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="AD39" s="130" t="s">
         <v>1392</v>
@@ -32832,7 +32832,7 @@
         <v>615</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -32867,7 +32867,7 @@
         <v>615</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -32906,7 +32906,7 @@
       </c>
       <c r="AA44" s="113"/>
       <c r="AD44" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -32985,7 +32985,7 @@
         <v>615</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -33021,7 +33021,7 @@
       </c>
       <c r="AA48" s="113"/>
       <c r="AD48" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
@@ -33093,7 +33093,7 @@
       </c>
       <c r="AA50" s="113"/>
       <c r="AD50" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
@@ -33152,7 +33152,7 @@
         <v>615</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
@@ -33261,7 +33261,7 @@
         <v>615</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
@@ -33317,7 +33317,7 @@
         <v>615</v>
       </c>
       <c r="AD55" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
@@ -33469,7 +33469,7 @@
         <v>615</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
@@ -33601,7 +33601,7 @@
         <v>615</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
@@ -33667,7 +33667,7 @@
         <v>615</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
@@ -33733,7 +33733,7 @@
         <v>615</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
@@ -33844,7 +33844,7 @@
         <v>615</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
@@ -33969,7 +33969,7 @@
         <v>615</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
       <c r="AE70" s="60"/>
     </row>
@@ -34032,7 +34032,7 @@
         <v>615</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AE71" s="60"/>
     </row>
@@ -34096,7 +34096,7 @@
         <v>615</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="AE72" s="60"/>
     </row>
@@ -34131,13 +34131,13 @@
       <c r="R74" s="124"/>
       <c r="S74" s="124"/>
       <c r="AD74" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
       <c r="AE74" s="60"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1343</v>
@@ -34179,13 +34179,13 @@
         <v>615</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AE75" s="60"/>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1343</v>
@@ -34227,13 +34227,13 @@
         <v>615</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="AE76" s="60"/>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1343</v>
@@ -34281,7 +34281,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1343</v>
@@ -34323,7 +34323,7 @@
         <v>615</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
       <c r="AE78" s="60"/>
     </row>
@@ -34415,7 +34415,7 @@
       <c r="R82" s="124"/>
       <c r="S82" s="124"/>
       <c r="AD82" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
       <c r="AE82" s="60"/>
     </row>
@@ -34442,7 +34442,7 @@
       <c r="R83" s="124"/>
       <c r="S83" s="124"/>
       <c r="AD83" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AE83" s="60"/>
     </row>
@@ -34463,7 +34463,7 @@
       <c r="R84" s="124"/>
       <c r="S84" s="124"/>
       <c r="AD84" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="AE84" s="60"/>
     </row>
@@ -34505,7 +34505,7 @@
       <c r="R86" s="124"/>
       <c r="S86" s="124"/>
       <c r="AD86" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
       <c r="AE86" s="60"/>
     </row>
@@ -34526,7 +34526,7 @@
       <c r="R87" s="124"/>
       <c r="S87" s="124"/>
       <c r="AD87" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="AE87" s="60"/>
     </row>
@@ -34660,7 +34660,7 @@
       <c r="S98" s="124"/>
       <c r="AA98" s="113"/>
       <c r="AD98" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
@@ -34690,7 +34690,7 @@
       <c r="S99" s="124"/>
       <c r="AA99" s="113"/>
       <c r="AD99" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
@@ -34720,7 +34720,7 @@
       <c r="S100" s="124"/>
       <c r="AA100" s="113"/>
       <c r="AD100" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
@@ -34767,7 +34767,7 @@
         <v>891</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
@@ -34784,7 +34784,7 @@
         <v>893</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.25">
@@ -34813,7 +34813,7 @@
       <c r="R108" s="124"/>
       <c r="S108" s="124"/>
       <c r="AD108" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="110" spans="1:31" x14ac:dyDescent="0.25">
@@ -34831,7 +34831,7 @@
       </c>
       <c r="AA110" s="113"/>
       <c r="AD110" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="111" spans="1:31" x14ac:dyDescent="0.25">
@@ -34849,7 +34849,7 @@
       </c>
       <c r="AA111" s="113"/>
       <c r="AD111" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="112" spans="1:31" x14ac:dyDescent="0.25">
@@ -34866,7 +34866,7 @@
         <v>1022</v>
       </c>
       <c r="AD112" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.25">
@@ -34898,7 +34898,7 @@
       <c r="R114" s="124"/>
       <c r="S114" s="124"/>
       <c r="AD114" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
@@ -34928,7 +34928,7 @@
       <c r="S115" s="124"/>
       <c r="AA115" s="113"/>
       <c r="AD115" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
@@ -34991,7 +34991,7 @@
       <c r="S118" s="124"/>
       <c r="AA118" s="113"/>
       <c r="AD118" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
@@ -35021,7 +35021,7 @@
       <c r="S119" s="124"/>
       <c r="AA119" s="113"/>
       <c r="AD119" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
@@ -35083,7 +35083,7 @@
       <c r="S122" s="124"/>
       <c r="AA122" s="113"/>
       <c r="AD122" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
@@ -35112,7 +35112,7 @@
       <c r="R123" s="124"/>
       <c r="S123" s="124"/>
       <c r="AD123" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
@@ -35170,7 +35170,7 @@
       <c r="R126" s="124"/>
       <c r="S126" s="124"/>
       <c r="AD126" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
@@ -35199,7 +35199,7 @@
       <c r="R128" s="124"/>
       <c r="S128" s="124"/>
       <c r="AD128" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
@@ -35243,7 +35243,7 @@
       <c r="R130" s="124"/>
       <c r="S130" s="124"/>
       <c r="AD130" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.25">
@@ -35272,7 +35272,7 @@
       <c r="R131" s="124"/>
       <c r="S131" s="124"/>
       <c r="AD131" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.25">
@@ -35333,7 +35333,7 @@
         <v>1241</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
@@ -35367,7 +35367,7 @@
       <c r="R136" s="113"/>
       <c r="S136" s="124"/>
       <c r="AD136" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
@@ -35422,7 +35422,7 @@
       <c r="R140" s="113"/>
       <c r="S140" s="124"/>
       <c r="AD140" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.25">
@@ -35471,7 +35471,7 @@
       </c>
       <c r="R142" s="113"/>
       <c r="AD142" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
@@ -35505,7 +35505,7 @@
       <c r="R144" s="113"/>
       <c r="S144" s="124"/>
       <c r="AD144" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
@@ -35557,7 +35557,7 @@
       <c r="P147" s="27"/>
       <c r="R147" s="113"/>
       <c r="AD147" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
@@ -35584,7 +35584,7 @@
       <c r="P148" s="27"/>
       <c r="R148" s="111"/>
       <c r="AD148" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
@@ -35635,7 +35635,7 @@
       </c>
       <c r="AA151" s="113"/>
       <c r="AD151" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
@@ -35697,7 +35697,7 @@
       <c r="R154" s="124"/>
       <c r="S154" s="124"/>
       <c r="AD154" s="1" t="s">
-        <v>1550</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="155" spans="1:30" x14ac:dyDescent="0.25">
@@ -35726,7 +35726,7 @@
       <c r="R155" s="124"/>
       <c r="S155" s="124"/>
       <c r="AD155" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="156" spans="1:30" x14ac:dyDescent="0.25">
@@ -35755,7 +35755,7 @@
       <c r="R156" s="124"/>
       <c r="S156" s="124"/>
       <c r="AD156" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="158" spans="1:30" x14ac:dyDescent="0.25">

--- a/TSS_boardgame.xlsx
+++ b/TSS_boardgame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benoi\Desktop\TSS\Thousand-Suns-Saga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB9C8F8-8524-4D5A-8798-538836C6ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982B04E6-1FD9-4BCC-9CE7-C83C3DAEA204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16290" windowHeight="14820" firstSheet="4" activeTab="15" xr2:uid="{B955C5A0-8230-4033-B161-BBE75800DDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="MapGenerator" sheetId="12" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="1615">
   <si>
     <t>LINE</t>
   </si>
@@ -4815,6 +4815,90 @@
   </si>
   <si>
     <t>{'construction_materials':10, 'computer_high_tech': 5}</t>
+  </si>
+  <si>
+    <t>DILEMMES D'EPOQUES</t>
+  </si>
+  <si>
+    <t>&gt; Transhumanisme robotique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; Anthropréservationnisme </t>
+  </si>
+  <si>
+    <t>&gt; Transhumanisme biologique</t>
+  </si>
+  <si>
+    <t>&gt; Autosuffisance économique</t>
+  </si>
+  <si>
+    <t>&gt; Piraterie spatiale</t>
+  </si>
+  <si>
+    <t>&gt; Libre échange sectoriel</t>
+  </si>
+  <si>
+    <t>&gt; Centralisme gouvernemental</t>
+  </si>
+  <si>
+    <t>&gt; Fédéralisme libre</t>
+  </si>
+  <si>
+    <t>&gt; Anarchie sectorielle</t>
+  </si>
+  <si>
+    <t>&gt; Impérialisme spatial</t>
+  </si>
+  <si>
+    <t>&gt; Planètes-états</t>
+  </si>
+  <si>
+    <t>&gt; Pan-sectorialisme ?</t>
+  </si>
+  <si>
+    <t>&gt; Suprématie humaine</t>
+  </si>
+  <si>
+    <t>&gt; Coexistence</t>
+  </si>
+  <si>
+    <t>&gt; Nous sommes aliens</t>
+  </si>
+  <si>
+    <t>COMPETITIONS DE VALEURS</t>
+  </si>
+  <si>
+    <t>&gt; Exploitaton illimitée</t>
+  </si>
+  <si>
+    <t>&gt; Terraformationnisme</t>
+  </si>
+  <si>
+    <t>&gt; Preservationnisme planétaire</t>
+  </si>
+  <si>
+    <t>&gt; Fanatisme religieux</t>
+  </si>
+  <si>
+    <t>&gt; Tolérance religieuse</t>
+  </si>
+  <si>
+    <t>&gt; Rationalisme</t>
+  </si>
+  <si>
+    <t>&gt; Utilitarisme</t>
+  </si>
+  <si>
+    <t>&gt; Individualisme</t>
+  </si>
+  <si>
+    <t>&gt; Suprématie synthétique</t>
+  </si>
+  <si>
+    <t>&gt; Primauté humaine</t>
+  </si>
+  <si>
+    <t>&gt; Co-gouvernance synthétique</t>
   </si>
 </sst>
 </file>
@@ -5500,7 +5584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5803,6 +5887,8 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -11100,24 +11186,24 @@
         <v>189</v>
       </c>
       <c r="F2" s="36"/>
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="168" t="s">
         <v>809</v>
       </c>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="166" t="s">
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="168" t="s">
         <v>818</v>
       </c>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="166" t="s">
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="168" t="s">
         <v>823</v>
       </c>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="170"/>
       <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:19" s="28" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11125,30 +11211,30 @@
         <v>189</v>
       </c>
       <c r="F3" s="36"/>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="168" t="s">
         <v>810</v>
       </c>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170" t="s">
+      <c r="H3" s="171"/>
+      <c r="I3" s="172" t="s">
         <v>813</v>
       </c>
-      <c r="J3" s="168"/>
-      <c r="K3" s="166" t="s">
+      <c r="J3" s="170"/>
+      <c r="K3" s="168" t="s">
         <v>810</v>
       </c>
-      <c r="L3" s="169"/>
-      <c r="M3" s="170" t="s">
+      <c r="L3" s="171"/>
+      <c r="M3" s="172" t="s">
         <v>813</v>
       </c>
-      <c r="N3" s="168"/>
-      <c r="O3" s="166" t="s">
+      <c r="N3" s="170"/>
+      <c r="O3" s="168" t="s">
         <v>810</v>
       </c>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="170" t="s">
+      <c r="P3" s="171"/>
+      <c r="Q3" s="172" t="s">
         <v>813</v>
       </c>
-      <c r="R3" s="168"/>
+      <c r="R3" s="170"/>
       <c r="S3" s="29"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -16710,34 +16796,34 @@
   <sheetData>
     <row r="1" spans="1:19" s="9" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="172" t="s">
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="172" t="s">
+      <c r="F1" s="175"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="172" t="s">
+      <c r="I1" s="175"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="173"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="172" t="s">
+      <c r="L1" s="175"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="O1" s="173"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="176"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
@@ -16906,9 +16992,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802CCB9-6BC1-466B-9FA9-DB5D5BC9B97C}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16982,10 +17070,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>315</v>
       </c>
@@ -16999,17 +17087,24 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="162"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>487</v>
       </c>
@@ -17020,14 +17115,147 @@
         <v>490</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="20" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="163" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="162"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>1611</v>
       </c>
     </row>
   </sheetData>
@@ -25164,7 +25392,7 @@
       <c r="M2" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="N2" s="162" t="s">
+      <c r="N2" s="164" t="s">
         <v>1115</v>
       </c>
       <c r="O2" s="59">
@@ -25223,7 +25451,7 @@
       <c r="M3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N3" s="163"/>
+      <c r="N3" s="165"/>
       <c r="O3" s="51" t="s">
         <v>1167</v>
       </c>
@@ -30303,7 +30531,7 @@
       <c r="M129" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="N129" s="162" t="s">
+      <c r="N129" s="164" t="s">
         <v>1115</v>
       </c>
       <c r="O129" s="59">
@@ -30362,7 +30590,7 @@
       <c r="M130" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="N130" s="163"/>
+      <c r="N130" s="165"/>
       <c r="O130" s="51" t="s">
         <v>1167</v>
       </c>
@@ -30739,10 +30967,10 @@
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="166" t="s">
         <v>1027</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="167"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -31437,7 +31665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64E6AF9-6078-4721-A837-8EBD9195CBAA}">
   <dimension ref="A1:AF315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N33" sqref="N33"/>
     </sheetView>
@@ -37762,10 +37990,10 @@
       <c r="B2" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="166" t="s">
         <v>1027</v>
       </c>
-      <c r="D2" s="165"/>
+      <c r="D2" s="167"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
